--- a/solar_project_data.xlsx
+++ b/solar_project_data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\96658\Desktop\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488DEDDC-6C9D-4221-A534-4B1946FAC203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{488DEDDC-6C9D-4221-A534-4B1946FAC203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9570EE95-B83B-4CC3-A40D-546C79D7DE93}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{65C84945-89BE-4E07-9382-F506FB6AEE4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="10" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,6 +59,18 @@
     <t>Actual Cost</t>
   </si>
   <si>
+    <t>Cost Variance</t>
+  </si>
+  <si>
+    <t>System Size (kWp)</t>
+  </si>
+  <si>
+    <t>Actual Energy Production (kWh)</t>
+  </si>
+  <si>
+    <t>PV System Energy Production (kWh)</t>
+  </si>
+  <si>
     <t>Engineering Design</t>
   </si>
   <si>
@@ -80,40 +92,28 @@
     <t>Construction</t>
   </si>
   <si>
+    <t>Logistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobilization </t>
+  </si>
+  <si>
+    <t>Mechanical Work</t>
+  </si>
+  <si>
     <t>Electrical Work</t>
   </si>
   <si>
     <t>Electrical</t>
   </si>
   <si>
+    <t>Civil Work</t>
+  </si>
+  <si>
     <t>Commissioning</t>
   </si>
   <si>
-    <t>Cost Variance</t>
-  </si>
-  <si>
-    <t>System Size (kWp)</t>
-  </si>
-  <si>
-    <t>Logistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobilization </t>
-  </si>
-  <si>
-    <t>Mechanical Work</t>
-  </si>
-  <si>
-    <t>Civil Work</t>
-  </si>
-  <si>
     <t>Handover</t>
-  </si>
-  <si>
-    <t>PV System Energy Production (kWh)</t>
-  </si>
-  <si>
-    <t>Actual Energy Production (kWh)</t>
   </si>
 </sst>
 </file>
@@ -123,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,7 +167,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -502,24 +502,24 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -542,21 +542,21 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>45444</v>
@@ -565,10 +565,10 @@
         <v>45470</v>
       </c>
       <c r="D2">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2">
         <v>50000</v>
@@ -590,9 +590,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>45466</v>
@@ -601,10 +601,10 @@
         <v>45477</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2">
         <v>50000</v>
@@ -626,9 +626,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>45473</v>
@@ -637,10 +637,10 @@
         <v>45491</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2">
         <v>500000</v>
@@ -662,9 +662,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
         <v>45480</v>
@@ -673,10 +673,10 @@
         <v>45484</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2">
         <v>200000</v>
@@ -698,9 +698,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>45480</v>
@@ -709,10 +709,10 @@
         <v>45484</v>
       </c>
       <c r="D6">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2">
         <v>200000</v>
@@ -734,9 +734,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1">
         <v>45491</v>
@@ -745,10 +745,10 @@
         <v>45493</v>
       </c>
       <c r="D7">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2">
         <v>800000</v>
@@ -770,9 +770,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1">
         <v>45493</v>
@@ -781,10 +781,10 @@
         <v>45502</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2">
         <v>150000</v>
@@ -806,9 +806,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
         <v>45493</v>
@@ -817,10 +817,10 @@
         <v>45502</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F9" s="2">
         <v>150000</v>
@@ -842,9 +842,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1">
         <v>45503</v>
@@ -853,10 +853,10 @@
         <v>45504</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2">
         <v>150000</v>
@@ -878,9 +878,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
         <v>45503</v>
@@ -889,10 +889,10 @@
         <v>45504</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F11" s="2">
         <v>150000</v>

--- a/solar_project_data.xlsx
+++ b/solar_project_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\96658\Desktop\pythonProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deserttech-my.sharepoint.com/personal/mhzayen_desert-technologies_com/Documents/GitHub/Solar-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{488DEDDC-6C9D-4221-A534-4B1946FAC203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9570EE95-B83B-4CC3-A40D-546C79D7DE93}"/>
@@ -123,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,7 +167,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="عادي" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -502,24 +502,24 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -590,7 +590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -626,7 +626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -662,7 +662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -698,7 +698,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -734,7 +734,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -770,7 +770,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -806,7 +806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -842,7 +842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -878,7 +878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>

--- a/solar_project_data.xlsx
+++ b/solar_project_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deserttech-my.sharepoint.com/personal/mhzayen_desert-technologies_com/Documents/GitHub/Solar-Dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deserttech-my.sharepoint.com/personal/haytham_desert-technologies_com/Documents/Nurun/Dashboard/GitHub/Solar-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{488DEDDC-6C9D-4221-A534-4B1946FAC203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9570EE95-B83B-4CC3-A40D-546C79D7DE93}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{488DEDDC-6C9D-4221-A534-4B1946FAC203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D4D43A4-1EC0-46DA-A408-5D2E1107B56C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{65C84945-89BE-4E07-9382-F506FB6AEE4E}"/>
   </bookViews>
@@ -180,6 +180,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -502,7 +506,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,7 +569,7 @@
         <v>45470</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -601,7 +605,7 @@
         <v>45477</v>
       </c>
       <c r="D3">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -637,7 +641,7 @@
         <v>45491</v>
       </c>
       <c r="D4">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -673,7 +677,7 @@
         <v>45484</v>
       </c>
       <c r="D5">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -709,7 +713,7 @@
         <v>45484</v>
       </c>
       <c r="D6">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -745,7 +749,7 @@
         <v>45493</v>
       </c>
       <c r="D7">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -781,7 +785,7 @@
         <v>45502</v>
       </c>
       <c r="D8">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -817,7 +821,7 @@
         <v>45502</v>
       </c>
       <c r="D9">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -853,7 +857,7 @@
         <v>45504</v>
       </c>
       <c r="D10">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
@@ -889,7 +893,7 @@
         <v>45504</v>
       </c>
       <c r="D11">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>

--- a/solar_project_data.xlsx
+++ b/solar_project_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deserttech-my.sharepoint.com/personal/haytham_desert-technologies_com/Documents/Nurun/Dashboard/GitHub/Solar-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{488DEDDC-6C9D-4221-A534-4B1946FAC203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D4D43A4-1EC0-46DA-A408-5D2E1107B56C}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{488DEDDC-6C9D-4221-A534-4B1946FAC203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{588004EB-3A35-4B5A-B942-9154D10EFF30}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{65C84945-89BE-4E07-9382-F506FB6AEE4E}"/>
+    <workbookView xWindow="-23148" yWindow="-96" windowWidth="23256" windowHeight="12456" xr2:uid="{65C84945-89BE-4E07-9382-F506FB6AEE4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="10" r:id="rId1"/>
@@ -180,10 +180,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -506,7 +502,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,7 +565,7 @@
         <v>45470</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -605,7 +601,7 @@
         <v>45477</v>
       </c>
       <c r="D3">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -641,7 +637,7 @@
         <v>45491</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -713,7 +709,7 @@
         <v>45484</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -749,7 +745,7 @@
         <v>45493</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -785,7 +781,7 @@
         <v>45502</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -821,7 +817,7 @@
         <v>45502</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -857,7 +853,7 @@
         <v>45504</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
@@ -893,7 +889,7 @@
         <v>45504</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>

--- a/solar_project_data.xlsx
+++ b/solar_project_data.xlsx
@@ -502,7 +502,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/solar_project_data.xlsx
+++ b/solar_project_data.xlsx
@@ -502,7 +502,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/solar_project_data.xlsx
+++ b/solar_project_data.xlsx
@@ -502,7 +502,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/solar_project_data.xlsx
+++ b/solar_project_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deserttech-my.sharepoint.com/personal/haytham_desert-technologies_com/Documents/Nurun/Dashboard/GitHub/Solar-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{488DEDDC-6C9D-4221-A534-4B1946FAC203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{588004EB-3A35-4B5A-B942-9154D10EFF30}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{488DEDDC-6C9D-4221-A534-4B1946FAC203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8135B884-4D90-4441-8B7C-DBCE72F43DD6}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-96" windowWidth="23256" windowHeight="12456" xr2:uid="{65C84945-89BE-4E07-9382-F506FB6AEE4E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{65C84945-89BE-4E07-9382-F506FB6AEE4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="10" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="30">
   <si>
     <t>Task</t>
   </si>
@@ -74,13 +74,7 @@
     <t>Engineering Design</t>
   </si>
   <si>
-    <t>Engineering</t>
-  </si>
-  <si>
     <t>Permitting</t>
-  </si>
-  <si>
-    <t>Legal</t>
   </si>
   <si>
     <t>Procurement</t>
@@ -89,22 +83,13 @@
     <t>Site Preparation</t>
   </si>
   <si>
-    <t>Construction</t>
-  </si>
-  <si>
     <t>Logistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobilization </t>
   </si>
   <si>
     <t>Mechanical Work</t>
   </si>
   <si>
     <t>Electrical Work</t>
-  </si>
-  <si>
-    <t>Electrical</t>
   </si>
   <si>
     <t>Civil Work</t>
@@ -115,6 +100,33 @@
   <si>
     <t>Handover</t>
   </si>
+  <si>
+    <t>PR01</t>
+  </si>
+  <si>
+    <t>PR02</t>
+  </si>
+  <si>
+    <t>PR03</t>
+  </si>
+  <si>
+    <t>PR04</t>
+  </si>
+  <si>
+    <t>PR05</t>
+  </si>
+  <si>
+    <t>PR06</t>
+  </si>
+  <si>
+    <t>PR07</t>
+  </si>
+  <si>
+    <t>PR08</t>
+  </si>
+  <si>
+    <t>PR09</t>
+  </si>
 </sst>
 </file>
 
@@ -123,7 +135,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +146,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -499,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2D0F5B-423C-4C4A-A838-DFA6E198728A}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,7 +586,7 @@
         <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2">
         <v>50000</v>
@@ -592,7 +610,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>45466</v>
@@ -604,7 +622,7 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2">
         <v>50000</v>
@@ -628,7 +646,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>45473</v>
@@ -640,7 +658,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2">
         <v>500000</v>
@@ -664,7 +682,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>45480</v>
@@ -676,7 +694,7 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2">
         <v>200000</v>
@@ -700,7 +718,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>45480</v>
@@ -712,7 +730,7 @@
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2">
         <v>200000</v>
@@ -736,7 +754,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>45491</v>
@@ -748,7 +766,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2">
         <v>800000</v>
@@ -772,7 +790,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
         <v>45493</v>
@@ -784,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2">
         <v>150000</v>
@@ -808,7 +826,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1">
         <v>45493</v>
@@ -820,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2">
         <v>150000</v>
@@ -844,7 +862,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>45503</v>
@@ -856,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2">
         <v>150000</v>
@@ -880,7 +898,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>45503</v>
@@ -892,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2">
         <v>150000</v>
@@ -914,7 +932,2888 @@
         <v>20</v>
       </c>
     </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45444</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D12">
+        <v>90</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G12" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H12" s="2">
+        <f>F12-G12</f>
+        <v>-50000</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1000</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45466</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45477</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G13" s="2">
+        <v>60000</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" ref="H13:H21" si="3">F13-G13</f>
+        <v>-10000</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>2000</v>
+      </c>
+      <c r="K13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45473</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45491</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="2">
+        <v>500000</v>
+      </c>
+      <c r="G14" s="2">
+        <v>500000</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>3000</v>
+      </c>
+      <c r="K14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45480</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45484</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="2">
+        <v>200000</v>
+      </c>
+      <c r="G15" s="2">
+        <v>180000</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="3"/>
+        <v>20000</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>4000</v>
+      </c>
+      <c r="K15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45480</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45484</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="2">
+        <v>200000</v>
+      </c>
+      <c r="G16" s="2">
+        <v>90000</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="3"/>
+        <v>110000</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>4000</v>
+      </c>
+      <c r="K16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45491</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45493</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="2">
+        <v>800000</v>
+      </c>
+      <c r="G17" s="2">
+        <v>700000</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>3000</v>
+      </c>
+      <c r="K17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45493</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45502</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G18" s="2">
+        <v>150000</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>2000</v>
+      </c>
+      <c r="K18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45493</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45502</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G19" s="2">
+        <v>180000</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="3"/>
+        <v>-30000</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>2000</v>
+      </c>
+      <c r="K19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45504</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G20" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="3"/>
+        <v>50000</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>2000</v>
+      </c>
+      <c r="K20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45504</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G21" s="2">
+        <v>90000</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="3"/>
+        <v>60000</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>2000</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45444</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D22">
+        <v>90</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G22" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H22" s="2">
+        <f>F22-G22</f>
+        <v>-50000</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1000</v>
+      </c>
+      <c r="K22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45466</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45477</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G23" s="2">
+        <v>60000</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" ref="H23:H31" si="4">F23-G23</f>
+        <v>-10000</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>2000</v>
+      </c>
+      <c r="K23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45473</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45491</v>
+      </c>
+      <c r="D24">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="2">
+        <v>500000</v>
+      </c>
+      <c r="G24" s="2">
+        <v>500000</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>3000</v>
+      </c>
+      <c r="K24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45480</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45484</v>
+      </c>
+      <c r="D25">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="2">
+        <v>200000</v>
+      </c>
+      <c r="G25" s="2">
+        <v>180000</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="4"/>
+        <v>20000</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>4000</v>
+      </c>
+      <c r="K25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45480</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45484</v>
+      </c>
+      <c r="D26">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="2">
+        <v>200000</v>
+      </c>
+      <c r="G26" s="2">
+        <v>90000</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="4"/>
+        <v>110000</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>4000</v>
+      </c>
+      <c r="K26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45491</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45493</v>
+      </c>
+      <c r="D27">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="2">
+        <v>800000</v>
+      </c>
+      <c r="G27" s="2">
+        <v>700000</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>3000</v>
+      </c>
+      <c r="K27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45493</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45502</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G28" s="2">
+        <v>150000</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>2000</v>
+      </c>
+      <c r="K28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45493</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45502</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G29" s="2">
+        <v>180000</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="4"/>
+        <v>-30000</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>2000</v>
+      </c>
+      <c r="K29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45504</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G30" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="4"/>
+        <v>50000</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>2000</v>
+      </c>
+      <c r="K30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45504</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G31" s="2">
+        <v>90000</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="4"/>
+        <v>60000</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>2000</v>
+      </c>
+      <c r="K31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45444</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D32">
+        <v>90</v>
+      </c>
+      <c r="E32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G32" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H32" s="2">
+        <f>F32-G32</f>
+        <v>-50000</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1000</v>
+      </c>
+      <c r="K32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45466</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45477</v>
+      </c>
+      <c r="D33">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G33" s="2">
+        <v>60000</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" ref="H33:H41" si="5">F33-G33</f>
+        <v>-10000</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>2000</v>
+      </c>
+      <c r="K33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45473</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45491</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
+      </c>
+      <c r="E34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="2">
+        <v>500000</v>
+      </c>
+      <c r="G34" s="2">
+        <v>500000</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>3000</v>
+      </c>
+      <c r="K34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="1">
+        <v>45480</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45484</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="2">
+        <v>200000</v>
+      </c>
+      <c r="G35" s="2">
+        <v>180000</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="5"/>
+        <v>20000</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>4000</v>
+      </c>
+      <c r="K35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45480</v>
+      </c>
+      <c r="C36" s="1">
+        <v>45484</v>
+      </c>
+      <c r="D36">
+        <v>50</v>
+      </c>
+      <c r="E36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="2">
+        <v>200000</v>
+      </c>
+      <c r="G36" s="2">
+        <v>90000</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="5"/>
+        <v>110000</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>4000</v>
+      </c>
+      <c r="K36">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45491</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45493</v>
+      </c>
+      <c r="D37">
+        <v>50</v>
+      </c>
+      <c r="E37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="2">
+        <v>800000</v>
+      </c>
+      <c r="G37" s="2">
+        <v>700000</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="5"/>
+        <v>100000</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>3000</v>
+      </c>
+      <c r="K37">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45493</v>
+      </c>
+      <c r="C38" s="1">
+        <v>45502</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G38" s="2">
+        <v>150000</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>2000</v>
+      </c>
+      <c r="K38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45493</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45502</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G39" s="2">
+        <v>180000</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="5"/>
+        <v>-30000</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>2000</v>
+      </c>
+      <c r="K39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C40" s="1">
+        <v>45504</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G40" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="5"/>
+        <v>50000</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>2000</v>
+      </c>
+      <c r="K40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45504</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G41" s="2">
+        <v>90000</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="5"/>
+        <v>60000</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>2000</v>
+      </c>
+      <c r="K41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="1">
+        <v>45444</v>
+      </c>
+      <c r="C42" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D42">
+        <v>90</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G42" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H42" s="2">
+        <f>F42-G42</f>
+        <v>-50000</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1000</v>
+      </c>
+      <c r="K42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="1">
+        <v>45466</v>
+      </c>
+      <c r="C43" s="1">
+        <v>45477</v>
+      </c>
+      <c r="D43">
+        <v>50</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G43" s="2">
+        <v>60000</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" ref="H43:H51" si="6">F43-G43</f>
+        <v>-10000</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>2000</v>
+      </c>
+      <c r="K43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="1">
+        <v>45473</v>
+      </c>
+      <c r="C44" s="1">
+        <v>45491</v>
+      </c>
+      <c r="D44">
+        <v>30</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="2">
+        <v>500000</v>
+      </c>
+      <c r="G44" s="2">
+        <v>500000</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>3000</v>
+      </c>
+      <c r="K44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="1">
+        <v>45480</v>
+      </c>
+      <c r="C45" s="1">
+        <v>45484</v>
+      </c>
+      <c r="D45">
+        <v>20</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="2">
+        <v>200000</v>
+      </c>
+      <c r="G45" s="2">
+        <v>180000</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="6"/>
+        <v>20000</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>4000</v>
+      </c>
+      <c r="K45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45480</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45484</v>
+      </c>
+      <c r="D46">
+        <v>50</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="2">
+        <v>200000</v>
+      </c>
+      <c r="G46" s="2">
+        <v>90000</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="6"/>
+        <v>110000</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>4000</v>
+      </c>
+      <c r="K46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="1">
+        <v>45491</v>
+      </c>
+      <c r="C47" s="1">
+        <v>45493</v>
+      </c>
+      <c r="D47">
+        <v>50</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="2">
+        <v>800000</v>
+      </c>
+      <c r="G47" s="2">
+        <v>700000</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="6"/>
+        <v>100000</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>3000</v>
+      </c>
+      <c r="K47">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45493</v>
+      </c>
+      <c r="C48" s="1">
+        <v>45502</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G48" s="2">
+        <v>150000</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>2000</v>
+      </c>
+      <c r="K48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="1">
+        <v>45493</v>
+      </c>
+      <c r="C49" s="1">
+        <v>45502</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G49" s="2">
+        <v>180000</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="6"/>
+        <v>-30000</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>2000</v>
+      </c>
+      <c r="K49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C50" s="1">
+        <v>45504</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G50" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="6"/>
+        <v>50000</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>2000</v>
+      </c>
+      <c r="K50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C51" s="1">
+        <v>45504</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G51" s="2">
+        <v>90000</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="6"/>
+        <v>60000</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>2000</v>
+      </c>
+      <c r="K51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="1">
+        <v>45444</v>
+      </c>
+      <c r="C52" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D52">
+        <v>90</v>
+      </c>
+      <c r="E52" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G52" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H52" s="2">
+        <f>F52-G52</f>
+        <v>-50000</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1000</v>
+      </c>
+      <c r="K52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="1">
+        <v>45466</v>
+      </c>
+      <c r="C53" s="1">
+        <v>45477</v>
+      </c>
+      <c r="D53">
+        <v>50</v>
+      </c>
+      <c r="E53" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G53" s="2">
+        <v>60000</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" ref="H53:H61" si="7">F53-G53</f>
+        <v>-10000</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>2000</v>
+      </c>
+      <c r="K53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="1">
+        <v>45473</v>
+      </c>
+      <c r="C54" s="1">
+        <v>45491</v>
+      </c>
+      <c r="D54">
+        <v>30</v>
+      </c>
+      <c r="E54" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="2">
+        <v>500000</v>
+      </c>
+      <c r="G54" s="2">
+        <v>500000</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>3000</v>
+      </c>
+      <c r="K54">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="1">
+        <v>45480</v>
+      </c>
+      <c r="C55" s="1">
+        <v>45484</v>
+      </c>
+      <c r="D55">
+        <v>20</v>
+      </c>
+      <c r="E55" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" s="2">
+        <v>200000</v>
+      </c>
+      <c r="G55" s="2">
+        <v>180000</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" si="7"/>
+        <v>20000</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>4000</v>
+      </c>
+      <c r="K55">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="1">
+        <v>45480</v>
+      </c>
+      <c r="C56" s="1">
+        <v>45484</v>
+      </c>
+      <c r="D56">
+        <v>50</v>
+      </c>
+      <c r="E56" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="2">
+        <v>200000</v>
+      </c>
+      <c r="G56" s="2">
+        <v>90000</v>
+      </c>
+      <c r="H56" s="2">
+        <f t="shared" si="7"/>
+        <v>110000</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>4000</v>
+      </c>
+      <c r="K56">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="1">
+        <v>45491</v>
+      </c>
+      <c r="C57" s="1">
+        <v>45493</v>
+      </c>
+      <c r="D57">
+        <v>50</v>
+      </c>
+      <c r="E57" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" s="2">
+        <v>800000</v>
+      </c>
+      <c r="G57" s="2">
+        <v>700000</v>
+      </c>
+      <c r="H57" s="2">
+        <f t="shared" si="7"/>
+        <v>100000</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>3000</v>
+      </c>
+      <c r="K57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="1">
+        <v>45493</v>
+      </c>
+      <c r="C58" s="1">
+        <v>45502</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G58" s="2">
+        <v>150000</v>
+      </c>
+      <c r="H58" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>2000</v>
+      </c>
+      <c r="K58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="1">
+        <v>45493</v>
+      </c>
+      <c r="C59" s="1">
+        <v>45502</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G59" s="2">
+        <v>180000</v>
+      </c>
+      <c r="H59" s="2">
+        <f t="shared" si="7"/>
+        <v>-30000</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>2000</v>
+      </c>
+      <c r="K59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C60" s="1">
+        <v>45504</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G60" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H60" s="2">
+        <f t="shared" si="7"/>
+        <v>50000</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>2000</v>
+      </c>
+      <c r="K60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C61" s="1">
+        <v>45504</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G61" s="2">
+        <v>90000</v>
+      </c>
+      <c r="H61" s="2">
+        <f t="shared" si="7"/>
+        <v>60000</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>2000</v>
+      </c>
+      <c r="K61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="1">
+        <v>45444</v>
+      </c>
+      <c r="C62" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D62">
+        <v>90</v>
+      </c>
+      <c r="E62" t="s">
+        <v>27</v>
+      </c>
+      <c r="F62" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G62" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H62" s="2">
+        <f>F62-G62</f>
+        <v>-50000</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1000</v>
+      </c>
+      <c r="K62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="1">
+        <v>45466</v>
+      </c>
+      <c r="C63" s="1">
+        <v>45477</v>
+      </c>
+      <c r="D63">
+        <v>50</v>
+      </c>
+      <c r="E63" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G63" s="2">
+        <v>60000</v>
+      </c>
+      <c r="H63" s="2">
+        <f t="shared" ref="H63:H71" si="8">F63-G63</f>
+        <v>-10000</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>2000</v>
+      </c>
+      <c r="K63">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="1">
+        <v>45473</v>
+      </c>
+      <c r="C64" s="1">
+        <v>45491</v>
+      </c>
+      <c r="D64">
+        <v>30</v>
+      </c>
+      <c r="E64" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" s="2">
+        <v>500000</v>
+      </c>
+      <c r="G64" s="2">
+        <v>500000</v>
+      </c>
+      <c r="H64" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>3000</v>
+      </c>
+      <c r="K64">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="1">
+        <v>45480</v>
+      </c>
+      <c r="C65" s="1">
+        <v>45484</v>
+      </c>
+      <c r="D65">
+        <v>20</v>
+      </c>
+      <c r="E65" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" s="2">
+        <v>200000</v>
+      </c>
+      <c r="G65" s="2">
+        <v>180000</v>
+      </c>
+      <c r="H65" s="2">
+        <f t="shared" si="8"/>
+        <v>20000</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>4000</v>
+      </c>
+      <c r="K65">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="1">
+        <v>45480</v>
+      </c>
+      <c r="C66" s="1">
+        <v>45484</v>
+      </c>
+      <c r="D66">
+        <v>50</v>
+      </c>
+      <c r="E66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" s="2">
+        <v>200000</v>
+      </c>
+      <c r="G66" s="2">
+        <v>90000</v>
+      </c>
+      <c r="H66" s="2">
+        <f t="shared" si="8"/>
+        <v>110000</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>4000</v>
+      </c>
+      <c r="K66">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="1">
+        <v>45491</v>
+      </c>
+      <c r="C67" s="1">
+        <v>45493</v>
+      </c>
+      <c r="D67">
+        <v>50</v>
+      </c>
+      <c r="E67" t="s">
+        <v>27</v>
+      </c>
+      <c r="F67" s="2">
+        <v>800000</v>
+      </c>
+      <c r="G67" s="2">
+        <v>700000</v>
+      </c>
+      <c r="H67" s="2">
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>3000</v>
+      </c>
+      <c r="K67">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="1">
+        <v>45493</v>
+      </c>
+      <c r="C68" s="1">
+        <v>45502</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>27</v>
+      </c>
+      <c r="F68" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G68" s="2">
+        <v>150000</v>
+      </c>
+      <c r="H68" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>2000</v>
+      </c>
+      <c r="K68">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="1">
+        <v>45493</v>
+      </c>
+      <c r="C69" s="1">
+        <v>45502</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>27</v>
+      </c>
+      <c r="F69" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G69" s="2">
+        <v>180000</v>
+      </c>
+      <c r="H69" s="2">
+        <f t="shared" si="8"/>
+        <v>-30000</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>2000</v>
+      </c>
+      <c r="K69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C70" s="1">
+        <v>45504</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>27</v>
+      </c>
+      <c r="F70" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G70" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H70" s="2">
+        <f t="shared" si="8"/>
+        <v>50000</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>2000</v>
+      </c>
+      <c r="K70">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C71" s="1">
+        <v>45504</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>27</v>
+      </c>
+      <c r="F71" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G71" s="2">
+        <v>90000</v>
+      </c>
+      <c r="H71" s="2">
+        <f t="shared" si="8"/>
+        <v>60000</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>2000</v>
+      </c>
+      <c r="K71">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="1">
+        <v>45444</v>
+      </c>
+      <c r="C72" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D72">
+        <v>90</v>
+      </c>
+      <c r="E72" t="s">
+        <v>28</v>
+      </c>
+      <c r="F72" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G72" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H72" s="2">
+        <f>F72-G72</f>
+        <v>-50000</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1000</v>
+      </c>
+      <c r="K72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="1">
+        <v>45466</v>
+      </c>
+      <c r="C73" s="1">
+        <v>45477</v>
+      </c>
+      <c r="D73">
+        <v>50</v>
+      </c>
+      <c r="E73" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G73" s="2">
+        <v>60000</v>
+      </c>
+      <c r="H73" s="2">
+        <f t="shared" ref="H73:H81" si="9">F73-G73</f>
+        <v>-10000</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>2000</v>
+      </c>
+      <c r="K73">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="1">
+        <v>45473</v>
+      </c>
+      <c r="C74" s="1">
+        <v>45491</v>
+      </c>
+      <c r="D74">
+        <v>30</v>
+      </c>
+      <c r="E74" t="s">
+        <v>28</v>
+      </c>
+      <c r="F74" s="2">
+        <v>500000</v>
+      </c>
+      <c r="G74" s="2">
+        <v>500000</v>
+      </c>
+      <c r="H74" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>3000</v>
+      </c>
+      <c r="K74">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" s="1">
+        <v>45480</v>
+      </c>
+      <c r="C75" s="1">
+        <v>45484</v>
+      </c>
+      <c r="D75">
+        <v>20</v>
+      </c>
+      <c r="E75" t="s">
+        <v>28</v>
+      </c>
+      <c r="F75" s="2">
+        <v>200000</v>
+      </c>
+      <c r="G75" s="2">
+        <v>180000</v>
+      </c>
+      <c r="H75" s="2">
+        <f t="shared" si="9"/>
+        <v>20000</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>4000</v>
+      </c>
+      <c r="K75">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="1">
+        <v>45480</v>
+      </c>
+      <c r="C76" s="1">
+        <v>45484</v>
+      </c>
+      <c r="D76">
+        <v>50</v>
+      </c>
+      <c r="E76" t="s">
+        <v>28</v>
+      </c>
+      <c r="F76" s="2">
+        <v>200000</v>
+      </c>
+      <c r="G76" s="2">
+        <v>90000</v>
+      </c>
+      <c r="H76" s="2">
+        <f t="shared" si="9"/>
+        <v>110000</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>4000</v>
+      </c>
+      <c r="K76">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" s="1">
+        <v>45491</v>
+      </c>
+      <c r="C77" s="1">
+        <v>45493</v>
+      </c>
+      <c r="D77">
+        <v>50</v>
+      </c>
+      <c r="E77" t="s">
+        <v>28</v>
+      </c>
+      <c r="F77" s="2">
+        <v>800000</v>
+      </c>
+      <c r="G77" s="2">
+        <v>700000</v>
+      </c>
+      <c r="H77" s="2">
+        <f t="shared" si="9"/>
+        <v>100000</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>3000</v>
+      </c>
+      <c r="K77">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" s="1">
+        <v>45493</v>
+      </c>
+      <c r="C78" s="1">
+        <v>45502</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F78" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G78" s="2">
+        <v>150000</v>
+      </c>
+      <c r="H78" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>2000</v>
+      </c>
+      <c r="K78">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" s="1">
+        <v>45493</v>
+      </c>
+      <c r="C79" s="1">
+        <v>45502</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>28</v>
+      </c>
+      <c r="F79" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G79" s="2">
+        <v>180000</v>
+      </c>
+      <c r="H79" s="2">
+        <f t="shared" si="9"/>
+        <v>-30000</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>2000</v>
+      </c>
+      <c r="K79">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C80" s="1">
+        <v>45504</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>28</v>
+      </c>
+      <c r="F80" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G80" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H80" s="2">
+        <f t="shared" si="9"/>
+        <v>50000</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>2000</v>
+      </c>
+      <c r="K80">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C81" s="1">
+        <v>45504</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>28</v>
+      </c>
+      <c r="F81" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G81" s="2">
+        <v>90000</v>
+      </c>
+      <c r="H81" s="2">
+        <f t="shared" si="9"/>
+        <v>60000</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>2000</v>
+      </c>
+      <c r="K81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="1">
+        <v>45444</v>
+      </c>
+      <c r="C82" s="1">
+        <v>45470</v>
+      </c>
+      <c r="D82">
+        <v>90</v>
+      </c>
+      <c r="E82" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G82" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H82" s="2">
+        <f>F82-G82</f>
+        <v>-50000</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1000</v>
+      </c>
+      <c r="K82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="1">
+        <v>45466</v>
+      </c>
+      <c r="C83" s="1">
+        <v>45477</v>
+      </c>
+      <c r="D83">
+        <v>50</v>
+      </c>
+      <c r="E83" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G83" s="2">
+        <v>60000</v>
+      </c>
+      <c r="H83" s="2">
+        <f t="shared" ref="H83:H91" si="10">F83-G83</f>
+        <v>-10000</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>2000</v>
+      </c>
+      <c r="K83">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="1">
+        <v>45473</v>
+      </c>
+      <c r="C84" s="1">
+        <v>45491</v>
+      </c>
+      <c r="D84">
+        <v>30</v>
+      </c>
+      <c r="E84" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="2">
+        <v>500000</v>
+      </c>
+      <c r="G84" s="2">
+        <v>500000</v>
+      </c>
+      <c r="H84" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>3000</v>
+      </c>
+      <c r="K84">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" s="1">
+        <v>45480</v>
+      </c>
+      <c r="C85" s="1">
+        <v>45484</v>
+      </c>
+      <c r="D85">
+        <v>20</v>
+      </c>
+      <c r="E85" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85" s="2">
+        <v>200000</v>
+      </c>
+      <c r="G85" s="2">
+        <v>180000</v>
+      </c>
+      <c r="H85" s="2">
+        <f t="shared" si="10"/>
+        <v>20000</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>4000</v>
+      </c>
+      <c r="K85">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" s="1">
+        <v>45480</v>
+      </c>
+      <c r="C86" s="1">
+        <v>45484</v>
+      </c>
+      <c r="D86">
+        <v>50</v>
+      </c>
+      <c r="E86" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86" s="2">
+        <v>200000</v>
+      </c>
+      <c r="G86" s="2">
+        <v>90000</v>
+      </c>
+      <c r="H86" s="2">
+        <f t="shared" si="10"/>
+        <v>110000</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>4000</v>
+      </c>
+      <c r="K86">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" s="1">
+        <v>45491</v>
+      </c>
+      <c r="C87" s="1">
+        <v>45493</v>
+      </c>
+      <c r="D87">
+        <v>50</v>
+      </c>
+      <c r="E87" t="s">
+        <v>29</v>
+      </c>
+      <c r="F87" s="2">
+        <v>800000</v>
+      </c>
+      <c r="G87" s="2">
+        <v>700000</v>
+      </c>
+      <c r="H87" s="2">
+        <f t="shared" si="10"/>
+        <v>100000</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>3000</v>
+      </c>
+      <c r="K87">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" s="1">
+        <v>45493</v>
+      </c>
+      <c r="C88" s="1">
+        <v>45502</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G88" s="2">
+        <v>150000</v>
+      </c>
+      <c r="H88" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>2000</v>
+      </c>
+      <c r="K88">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" s="1">
+        <v>45493</v>
+      </c>
+      <c r="C89" s="1">
+        <v>45502</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>29</v>
+      </c>
+      <c r="F89" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G89" s="2">
+        <v>180000</v>
+      </c>
+      <c r="H89" s="2">
+        <f t="shared" si="10"/>
+        <v>-30000</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>2000</v>
+      </c>
+      <c r="K89">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>19</v>
+      </c>
+      <c r="B90" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C90" s="1">
+        <v>45504</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G90" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H90" s="2">
+        <f t="shared" si="10"/>
+        <v>50000</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>2000</v>
+      </c>
+      <c r="K90">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C91" s="1">
+        <v>45504</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" s="2">
+        <v>150000</v>
+      </c>
+      <c r="G91" s="2">
+        <v>90000</v>
+      </c>
+      <c r="H91" s="2">
+        <f t="shared" si="10"/>
+        <v>60000</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>2000</v>
+      </c>
+      <c r="K91">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/solar_project_data.xlsx
+++ b/solar_project_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deserttech-my.sharepoint.com/personal/haytham_desert-technologies_com/Documents/Nurun/Dashboard/GitHub/Solar-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{488DEDDC-6C9D-4221-A534-4B1946FAC203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8135B884-4D90-4441-8B7C-DBCE72F43DD6}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:1_{488DEDDC-6C9D-4221-A534-4B1946FAC203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D02E08CF-FB0B-4E57-A164-E95BA1970601}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{65C84945-89BE-4E07-9382-F506FB6AEE4E}"/>
   </bookViews>
@@ -101,31 +101,31 @@
     <t>Handover</t>
   </si>
   <si>
-    <t>PR01</t>
+    <t>PR01, NEIDC Data Center</t>
   </si>
   <si>
-    <t>PR02</t>
+    <t>PR02, Warehouse</t>
   </si>
   <si>
-    <t>PR03</t>
+    <t>PR03, NOC Parking</t>
   </si>
   <si>
-    <t>PR04</t>
+    <t>PR04, Al Jawwal Parking</t>
   </si>
   <si>
-    <t>PR05</t>
+    <t>PR05, East Parking</t>
   </si>
   <si>
-    <t>PR06</t>
+    <t>PR06, West Parking</t>
   </si>
   <si>
-    <t>PR07</t>
+    <t>PR07, North Sales Outlet</t>
   </si>
   <si>
-    <t>PR08</t>
+    <t>PR08, Building 5</t>
   </si>
   <si>
-    <t>PR09</t>
+    <t>PR09, Building 45</t>
   </si>
 </sst>
 </file>
@@ -157,12 +157,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -178,10 +202,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -519,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2D0F5B-423C-4C4A-A838-DFA6E198728A}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,7 +562,7 @@
     <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
@@ -573,3242 +607,3242 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>45444</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>45470</v>
       </c>
-      <c r="D2">
-        <v>90</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="1">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>50000</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>100000</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <f>F2-G2</f>
         <v>-50000</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
         <v>1000</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>45466</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>45477</v>
       </c>
-      <c r="D3">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="1">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>50000</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>60000</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <f t="shared" ref="H3:H8" si="0">F3-G3</f>
         <v>-10000</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>2000</v>
-      </c>
-      <c r="K3">
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K3" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>45473</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>45491</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
+        <v>100</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="G4" s="3">
+        <v>500000</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3000</v>
+      </c>
+      <c r="K4" s="1">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45480</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45484</v>
+      </c>
+      <c r="D5" s="1">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2">
-        <v>500000</v>
-      </c>
-      <c r="G4" s="2">
-        <v>500000</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>3000</v>
-      </c>
-      <c r="K4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45480</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45484</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>200000</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>180000</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
         <v>4000</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>45480</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>45484</v>
       </c>
-      <c r="D6">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>200000</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>90000</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <f t="shared" ref="H6" si="1">F6-G6</f>
         <v>110000</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
         <v>4000</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>45491</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>45493</v>
       </c>
-      <c r="D7">
-        <v>50</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="1">
+        <v>100</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>800000</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>700000</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
         <v>3000</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>45493</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>45502</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="1">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G8" s="2">
-        <v>150000</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="F8" s="3">
+        <v>150000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>150000</v>
+      </c>
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>2000</v>
-      </c>
-      <c r="K8">
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K8" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>45493</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>45502</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="1">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F9" s="3">
+        <v>150000</v>
+      </c>
+      <c r="G9" s="3">
         <v>180000</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3">
         <f t="shared" ref="H9:H11" si="2">F9-G9</f>
         <v>-30000</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>2000</v>
-      </c>
-      <c r="K9">
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K9" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>45503</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>45504</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="F10" s="3">
+        <v>150000</v>
+      </c>
+      <c r="G10" s="3">
         <v>100000</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="3">
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>2000</v>
-      </c>
-      <c r="K10">
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K10" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2">
         <v>45503</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>45504</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="F11" s="3">
+        <v>150000</v>
+      </c>
+      <c r="G11" s="3">
         <v>90000</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="3">
         <f t="shared" si="2"/>
         <v>60000</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>2000</v>
-      </c>
-      <c r="K11">
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K11" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="5">
         <v>45444</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="5">
         <v>45470</v>
       </c>
-      <c r="D12">
-        <v>90</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" s="4">
+        <v>100</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="6">
         <v>50000</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="6">
         <v>100000</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="6">
         <f>F12-G12</f>
         <v>-50000</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
         <v>1000</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="5">
         <v>45466</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="5">
         <v>45477</v>
       </c>
-      <c r="D13">
-        <v>50</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="4">
+        <v>100</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="6">
         <v>50000</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="6">
         <v>60000</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="6">
         <f t="shared" ref="H13:H21" si="3">F13-G13</f>
         <v>-10000</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>2000</v>
-      </c>
-      <c r="K13">
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>2000</v>
+      </c>
+      <c r="K13" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="5">
         <v>45473</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="5">
         <v>45491</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
+        <v>100</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="6">
+        <v>500000</v>
+      </c>
+      <c r="G14" s="6">
+        <v>500000</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>3000</v>
+      </c>
+      <c r="K14" s="4">
         <v>30</v>
       </c>
-      <c r="E14" t="s">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>45480</v>
+      </c>
+      <c r="C15" s="5">
+        <v>45484</v>
+      </c>
+      <c r="D15" s="4">
+        <v>100</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="2">
-        <v>500000</v>
-      </c>
-      <c r="G14" s="2">
-        <v>500000</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>3000</v>
-      </c>
-      <c r="K14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>45480</v>
-      </c>
-      <c r="C15" s="1">
-        <v>45484</v>
-      </c>
-      <c r="D15">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="F15" s="6">
         <v>200000</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="6">
         <v>180000</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="6">
         <f t="shared" si="3"/>
         <v>20000</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
         <v>4000</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="4">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="5">
         <v>45480</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="5">
         <v>45484</v>
       </c>
-      <c r="D16">
-        <v>50</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16" s="4">
+        <v>100</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="6">
         <v>200000</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="6">
         <v>90000</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="6">
         <f t="shared" si="3"/>
         <v>110000</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
         <v>4000</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="4">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="5">
         <v>45491</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="5">
         <v>45493</v>
       </c>
-      <c r="D17">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="4">
+        <v>100</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="6">
         <v>800000</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="6">
         <v>700000</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="6">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
         <v>3000</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="4">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="5">
         <v>45493</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="5">
         <v>45502</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" s="4">
+        <v>100</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G18" s="2">
-        <v>150000</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="F18" s="6">
+        <v>150000</v>
+      </c>
+      <c r="G18" s="6">
+        <v>150000</v>
+      </c>
+      <c r="H18" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>2000</v>
-      </c>
-      <c r="K18">
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>2000</v>
+      </c>
+      <c r="K18" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="5">
         <v>45493</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="5">
         <v>45502</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" s="4">
+        <v>100</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G19" s="2">
+      <c r="F19" s="6">
+        <v>150000</v>
+      </c>
+      <c r="G19" s="6">
         <v>180000</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="6">
         <f t="shared" si="3"/>
         <v>-30000</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>2000</v>
-      </c>
-      <c r="K19">
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>2000</v>
+      </c>
+      <c r="K19" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="5">
         <v>45503</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="5">
         <v>45504</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="F20" s="6">
+        <v>150000</v>
+      </c>
+      <c r="G20" s="6">
         <v>100000</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="6">
         <f t="shared" si="3"/>
         <v>50000</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>2000</v>
-      </c>
-      <c r="K20">
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>2000</v>
+      </c>
+      <c r="K20" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
         <v>45503</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="5">
         <v>45504</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="F21" s="6">
+        <v>150000</v>
+      </c>
+      <c r="G21" s="6">
         <v>90000</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="6">
         <f t="shared" si="3"/>
         <v>60000</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>2000</v>
-      </c>
-      <c r="K21">
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>2000</v>
+      </c>
+      <c r="K21" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="8">
         <v>45444</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="8">
         <v>45470</v>
       </c>
-      <c r="D22">
-        <v>90</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D22" s="7">
+        <v>100</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="9">
         <v>50000</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="9">
         <v>100000</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="9">
         <f>F22-G22</f>
         <v>-50000</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7">
         <v>1000</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="8">
         <v>45466</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="8">
         <v>45477</v>
       </c>
-      <c r="D23">
-        <v>50</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D23" s="7">
+        <v>100</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="9">
         <v>50000</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="9">
         <v>60000</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="9">
         <f t="shared" ref="H23:H31" si="4">F23-G23</f>
         <v>-10000</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>2000</v>
-      </c>
-      <c r="K23">
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7">
+        <v>2000</v>
+      </c>
+      <c r="K23" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="8">
         <v>45473</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="8">
         <v>45491</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="7">
+        <v>80</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="9">
+        <v>500000</v>
+      </c>
+      <c r="G24" s="9">
+        <v>500000</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7">
+        <v>3000</v>
+      </c>
+      <c r="K24" s="7">
         <v>30</v>
       </c>
-      <c r="E24" t="s">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="8">
+        <v>45480</v>
+      </c>
+      <c r="C25" s="8">
+        <v>45484</v>
+      </c>
+      <c r="D25" s="7">
+        <v>100</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="2">
-        <v>500000</v>
-      </c>
-      <c r="G24" s="2">
-        <v>500000</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>3000</v>
-      </c>
-      <c r="K24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="1">
-        <v>45480</v>
-      </c>
-      <c r="C25" s="1">
-        <v>45484</v>
-      </c>
-      <c r="D25">
-        <v>20</v>
-      </c>
-      <c r="E25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="2">
+      <c r="F25" s="9">
         <v>200000</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="9">
         <v>180000</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="9">
         <f t="shared" si="4"/>
         <v>20000</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7">
         <v>4000</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="7">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="8">
         <v>45480</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="8">
         <v>45484</v>
       </c>
-      <c r="D26">
-        <v>50</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D26" s="7">
+        <v>100</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="9">
         <v>200000</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="9">
         <v>90000</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="9">
         <f t="shared" si="4"/>
         <v>110000</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7">
         <v>4000</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="7">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="8">
         <v>45491</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="8">
         <v>45493</v>
       </c>
-      <c r="D27">
-        <v>50</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D27" s="7">
+        <v>100</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="9">
         <v>800000</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="9">
         <v>700000</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="9">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7">
         <v>3000</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="7">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="8">
         <v>45493</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="8">
         <v>45502</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D28" s="7">
+        <v>60</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G28" s="2">
-        <v>150000</v>
-      </c>
-      <c r="H28" s="2">
+      <c r="F28" s="9">
+        <v>150000</v>
+      </c>
+      <c r="G28" s="9">
+        <v>150000</v>
+      </c>
+      <c r="H28" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>2000</v>
-      </c>
-      <c r="K28">
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7">
+        <v>2000</v>
+      </c>
+      <c r="K28" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="8">
         <v>45493</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="8">
         <v>45502</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G29" s="2">
+      <c r="F29" s="9">
+        <v>150000</v>
+      </c>
+      <c r="G29" s="9">
         <v>180000</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="9">
         <f t="shared" si="4"/>
         <v>-30000</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>2000</v>
-      </c>
-      <c r="K29">
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7">
+        <v>2000</v>
+      </c>
+      <c r="K29" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="8">
         <v>45503</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="8">
         <v>45504</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G30" s="2">
+      <c r="F30" s="9">
+        <v>150000</v>
+      </c>
+      <c r="G30" s="9">
         <v>100000</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="9">
         <f t="shared" si="4"/>
         <v>50000</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>2000</v>
-      </c>
-      <c r="K30">
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7">
+        <v>2000</v>
+      </c>
+      <c r="K30" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="1">
+      <c r="A31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="8">
         <v>45503</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="8">
         <v>45504</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G31" s="2">
+      <c r="F31" s="9">
+        <v>150000</v>
+      </c>
+      <c r="G31" s="9">
         <v>90000</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="9">
         <f t="shared" si="4"/>
         <v>60000</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>2000</v>
-      </c>
-      <c r="K31">
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7">
+        <v>2000</v>
+      </c>
+      <c r="K31" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="11">
         <v>45444</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="11">
         <v>45470</v>
       </c>
-      <c r="D32">
-        <v>90</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D32" s="10">
+        <v>100</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="12">
         <v>50000</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="12">
         <v>100000</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="12">
         <f>F32-G32</f>
         <v>-50000</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
+      <c r="I32" s="10">
+        <v>0</v>
+      </c>
+      <c r="J32" s="10">
         <v>1000</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="11">
         <v>45466</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="11">
         <v>45477</v>
       </c>
-      <c r="D33">
-        <v>50</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D33" s="10">
+        <v>100</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="12">
         <v>50000</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="12">
         <v>60000</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="12">
         <f t="shared" ref="H33:H41" si="5">F33-G33</f>
         <v>-10000</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>2000</v>
-      </c>
-      <c r="K33">
+      <c r="I33" s="10">
+        <v>0</v>
+      </c>
+      <c r="J33" s="10">
+        <v>2000</v>
+      </c>
+      <c r="K33" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="11">
         <v>45473</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="11">
         <v>45491</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="10">
+        <v>65</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="12">
+        <v>500000</v>
+      </c>
+      <c r="G34" s="12">
+        <v>500000</v>
+      </c>
+      <c r="H34" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0</v>
+      </c>
+      <c r="J34" s="10">
+        <v>3000</v>
+      </c>
+      <c r="K34" s="10">
         <v>30</v>
       </c>
-      <c r="E34" t="s">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="11">
+        <v>45480</v>
+      </c>
+      <c r="C35" s="11">
+        <v>45484</v>
+      </c>
+      <c r="D35" s="10">
+        <v>100</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="2">
-        <v>500000</v>
-      </c>
-      <c r="G34" s="2">
-        <v>500000</v>
-      </c>
-      <c r="H34" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>3000</v>
-      </c>
-      <c r="K34">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="1">
-        <v>45480</v>
-      </c>
-      <c r="C35" s="1">
-        <v>45484</v>
-      </c>
-      <c r="D35">
-        <v>20</v>
-      </c>
-      <c r="E35" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="2">
+      <c r="F35" s="12">
         <v>200000</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="12">
         <v>180000</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="12">
         <f t="shared" si="5"/>
         <v>20000</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
+      <c r="I35" s="10">
+        <v>0</v>
+      </c>
+      <c r="J35" s="10">
         <v>4000</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="10">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="11">
         <v>45480</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="11">
         <v>45484</v>
       </c>
-      <c r="D36">
-        <v>50</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D36" s="10">
+        <v>65</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="12">
         <v>200000</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="12">
         <v>90000</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="12">
         <f t="shared" si="5"/>
         <v>110000</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
+      <c r="I36" s="10">
+        <v>0</v>
+      </c>
+      <c r="J36" s="10">
         <v>4000</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="10">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="A37" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="11">
         <v>45491</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="11">
         <v>45493</v>
       </c>
-      <c r="D37">
-        <v>50</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D37" s="10">
+        <v>100</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="12">
         <v>800000</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="12">
         <v>700000</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="12">
         <f t="shared" si="5"/>
         <v>100000</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
+      <c r="I37" s="10">
+        <v>0</v>
+      </c>
+      <c r="J37" s="10">
         <v>3000</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="10">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="A38" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="11">
         <v>45493</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="11">
         <v>45502</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="D38" s="10">
+        <v>50</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F38" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G38" s="2">
-        <v>150000</v>
-      </c>
-      <c r="H38" s="2">
+      <c r="F38" s="12">
+        <v>150000</v>
+      </c>
+      <c r="G38" s="12">
+        <v>150000</v>
+      </c>
+      <c r="H38" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>2000</v>
-      </c>
-      <c r="K38">
+      <c r="I38" s="10">
+        <v>0</v>
+      </c>
+      <c r="J38" s="10">
+        <v>2000</v>
+      </c>
+      <c r="K38" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="A39" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="11">
         <v>45493</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="11">
         <v>45502</v>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="D39" s="10">
+        <v>0</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G39" s="2">
+      <c r="F39" s="12">
+        <v>150000</v>
+      </c>
+      <c r="G39" s="12">
         <v>180000</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="12">
         <f t="shared" si="5"/>
         <v>-30000</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>2000</v>
-      </c>
-      <c r="K39">
+      <c r="I39" s="10">
+        <v>0</v>
+      </c>
+      <c r="J39" s="10">
+        <v>2000</v>
+      </c>
+      <c r="K39" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A40" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="11">
         <v>45503</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="11">
         <v>45504</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="D40" s="10">
+        <v>0</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G40" s="2">
+      <c r="F40" s="12">
+        <v>150000</v>
+      </c>
+      <c r="G40" s="12">
         <v>100000</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="12">
         <f t="shared" si="5"/>
         <v>50000</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>2000</v>
-      </c>
-      <c r="K40">
+      <c r="I40" s="10">
+        <v>0</v>
+      </c>
+      <c r="J40" s="10">
+        <v>2000</v>
+      </c>
+      <c r="K40" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="1">
+      <c r="A41" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="11">
         <v>45503</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="11">
         <v>45504</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="D41" s="10">
+        <v>0</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G41" s="2">
+      <c r="F41" s="12">
+        <v>150000</v>
+      </c>
+      <c r="G41" s="12">
         <v>90000</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="12">
         <f t="shared" si="5"/>
         <v>60000</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>2000</v>
-      </c>
-      <c r="K41">
+      <c r="I41" s="10">
+        <v>0</v>
+      </c>
+      <c r="J41" s="10">
+        <v>2000</v>
+      </c>
+      <c r="K41" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <v>45444</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="2">
         <v>45470</v>
       </c>
-      <c r="D42">
-        <v>90</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="3">
         <v>50000</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="3">
         <v>100000</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="3">
         <f>F42-G42</f>
         <v>-50000</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
         <v>1000</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <v>45466</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="2">
         <v>45477</v>
       </c>
-      <c r="D43">
-        <v>50</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="3">
         <v>50000</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="3">
         <v>60000</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="3">
         <f t="shared" ref="H43:H51" si="6">F43-G43</f>
         <v>-10000</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>2000</v>
-      </c>
-      <c r="K43">
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K43" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <v>45473</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="2">
         <v>45491</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="3">
+        <v>500000</v>
+      </c>
+      <c r="G44" s="3">
+        <v>500000</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>3000</v>
+      </c>
+      <c r="K44" s="1">
         <v>30</v>
       </c>
-      <c r="E44" t="s">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="2">
+        <v>45480</v>
+      </c>
+      <c r="C45" s="2">
+        <v>45484</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F44" s="2">
-        <v>500000</v>
-      </c>
-      <c r="G44" s="2">
-        <v>500000</v>
-      </c>
-      <c r="H44" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>3000</v>
-      </c>
-      <c r="K44">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="1">
-        <v>45480</v>
-      </c>
-      <c r="C45" s="1">
-        <v>45484</v>
-      </c>
-      <c r="D45">
-        <v>20</v>
-      </c>
-      <c r="E45" t="s">
-        <v>25</v>
-      </c>
-      <c r="F45" s="2">
+      <c r="F45" s="3">
         <v>200000</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="3">
         <v>180000</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="3">
         <f t="shared" si="6"/>
         <v>20000</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
         <v>4000</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="2">
         <v>45480</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="2">
         <v>45484</v>
       </c>
-      <c r="D46">
-        <v>50</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="3">
         <v>200000</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="3">
         <v>90000</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="3">
         <f t="shared" si="6"/>
         <v>110000</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
         <v>4000</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="2">
         <v>45491</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="2">
         <v>45493</v>
       </c>
-      <c r="D47">
-        <v>50</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="3">
         <v>800000</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="3">
         <v>700000</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="3">
         <f t="shared" si="6"/>
         <v>100000</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
         <v>3000</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="2">
         <v>45493</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="2">
         <v>45502</v>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F48" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G48" s="2">
-        <v>150000</v>
-      </c>
-      <c r="H48" s="2">
+      <c r="F48" s="3">
+        <v>150000</v>
+      </c>
+      <c r="G48" s="3">
+        <v>150000</v>
+      </c>
+      <c r="H48" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>2000</v>
-      </c>
-      <c r="K48">
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K48" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="2">
         <v>45493</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="2">
         <v>45502</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F49" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G49" s="2">
+      <c r="F49" s="3">
+        <v>150000</v>
+      </c>
+      <c r="G49" s="3">
         <v>180000</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="3">
         <f t="shared" si="6"/>
         <v>-30000</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>2000</v>
-      </c>
-      <c r="K49">
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K49" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="2">
         <v>45503</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="2">
         <v>45504</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F50" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G50" s="2">
+      <c r="F50" s="3">
+        <v>150000</v>
+      </c>
+      <c r="G50" s="3">
         <v>100000</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="3">
         <f t="shared" si="6"/>
         <v>50000</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>2000</v>
-      </c>
-      <c r="K50">
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K50" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>20</v>
-      </c>
-      <c r="B51" s="1">
+      <c r="A51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="2">
         <v>45503</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="2">
         <v>45504</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F51" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G51" s="2">
+      <c r="F51" s="3">
+        <v>150000</v>
+      </c>
+      <c r="G51" s="3">
         <v>90000</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="3">
         <f t="shared" si="6"/>
         <v>60000</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>2000</v>
-      </c>
-      <c r="K51">
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K51" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="A52" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="5">
         <v>45444</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="5">
         <v>45470</v>
       </c>
-      <c r="D52">
-        <v>90</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="6">
         <v>50000</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="6">
         <v>100000</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="6">
         <f>F52-G52</f>
         <v>-50000</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
+      <c r="I52" s="4">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4">
         <v>1000</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="A53" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="5">
         <v>45466</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="5">
         <v>45477</v>
       </c>
-      <c r="D53">
-        <v>50</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="6">
         <v>50000</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="6">
         <v>60000</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="6">
         <f t="shared" ref="H53:H61" si="7">F53-G53</f>
         <v>-10000</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>2000</v>
-      </c>
-      <c r="K53">
+      <c r="I53" s="4">
+        <v>0</v>
+      </c>
+      <c r="J53" s="4">
+        <v>2000</v>
+      </c>
+      <c r="K53" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="A54" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="5">
         <v>45473</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="5">
         <v>45491</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="6">
+        <v>500000</v>
+      </c>
+      <c r="G54" s="6">
+        <v>500000</v>
+      </c>
+      <c r="H54" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0</v>
+      </c>
+      <c r="J54" s="4">
+        <v>3000</v>
+      </c>
+      <c r="K54" s="4">
         <v>30</v>
       </c>
-      <c r="E54" t="s">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="5">
+        <v>45480</v>
+      </c>
+      <c r="C55" s="5">
+        <v>45484</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F54" s="2">
-        <v>500000</v>
-      </c>
-      <c r="G54" s="2">
-        <v>500000</v>
-      </c>
-      <c r="H54" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>3000</v>
-      </c>
-      <c r="K54">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55" s="1">
-        <v>45480</v>
-      </c>
-      <c r="C55" s="1">
-        <v>45484</v>
-      </c>
-      <c r="D55">
-        <v>20</v>
-      </c>
-      <c r="E55" t="s">
-        <v>26</v>
-      </c>
-      <c r="F55" s="2">
+      <c r="F55" s="6">
         <v>200000</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="6">
         <v>180000</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="6">
         <f t="shared" si="7"/>
         <v>20000</v>
       </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
+      <c r="I55" s="4">
+        <v>0</v>
+      </c>
+      <c r="J55" s="4">
         <v>4000</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="4">
         <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="A56" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="5">
         <v>45480</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="5">
         <v>45484</v>
       </c>
-      <c r="D56">
-        <v>50</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="6">
         <v>200000</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="6">
         <v>90000</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56" s="6">
         <f t="shared" si="7"/>
         <v>110000</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
+      <c r="I56" s="4">
+        <v>0</v>
+      </c>
+      <c r="J56" s="4">
         <v>4000</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="4">
         <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="A57" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="5">
         <v>45491</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="5">
         <v>45493</v>
       </c>
-      <c r="D57">
-        <v>50</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="6">
         <v>800000</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="6">
         <v>700000</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57" s="6">
         <f t="shared" si="7"/>
         <v>100000</v>
       </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
+      <c r="I57" s="4">
+        <v>0</v>
+      </c>
+      <c r="J57" s="4">
         <v>3000</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="4">
         <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="A58" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="5">
         <v>45493</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="5">
         <v>45502</v>
       </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F58" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G58" s="2">
-        <v>150000</v>
-      </c>
-      <c r="H58" s="2">
+      <c r="F58" s="6">
+        <v>150000</v>
+      </c>
+      <c r="G58" s="6">
+        <v>150000</v>
+      </c>
+      <c r="H58" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>2000</v>
-      </c>
-      <c r="K58">
+      <c r="I58" s="4">
+        <v>0</v>
+      </c>
+      <c r="J58" s="4">
+        <v>2000</v>
+      </c>
+      <c r="K58" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="A59" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="5">
         <v>45493</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="5">
         <v>45502</v>
       </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F59" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G59" s="2">
+      <c r="F59" s="6">
+        <v>150000</v>
+      </c>
+      <c r="G59" s="6">
         <v>180000</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59" s="6">
         <f t="shared" si="7"/>
         <v>-30000</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>2000</v>
-      </c>
-      <c r="K59">
+      <c r="I59" s="4">
+        <v>0</v>
+      </c>
+      <c r="J59" s="4">
+        <v>2000</v>
+      </c>
+      <c r="K59" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="A60" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="5">
         <v>45503</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="5">
         <v>45504</v>
       </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F60" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G60" s="2">
+      <c r="F60" s="6">
+        <v>150000</v>
+      </c>
+      <c r="G60" s="6">
         <v>100000</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H60" s="6">
         <f t="shared" si="7"/>
         <v>50000</v>
       </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>2000</v>
-      </c>
-      <c r="K60">
+      <c r="I60" s="4">
+        <v>0</v>
+      </c>
+      <c r="J60" s="4">
+        <v>2000</v>
+      </c>
+      <c r="K60" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" s="1">
+      <c r="A61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="5">
         <v>45503</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="5">
         <v>45504</v>
       </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F61" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G61" s="2">
+      <c r="F61" s="6">
+        <v>150000</v>
+      </c>
+      <c r="G61" s="6">
         <v>90000</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61" s="6">
         <f t="shared" si="7"/>
         <v>60000</v>
       </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>2000</v>
-      </c>
-      <c r="K61">
+      <c r="I61" s="4">
+        <v>0</v>
+      </c>
+      <c r="J61" s="4">
+        <v>2000</v>
+      </c>
+      <c r="K61" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="A62" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="8">
         <v>45444</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="8">
         <v>45470</v>
       </c>
-      <c r="D62">
-        <v>90</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="D62" s="7">
+        <v>100</v>
+      </c>
+      <c r="E62" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="9">
         <v>50000</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62" s="9">
         <v>100000</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H62" s="9">
         <f>F62-G62</f>
         <v>-50000</v>
       </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
+      <c r="I62" s="7">
+        <v>0</v>
+      </c>
+      <c r="J62" s="7">
         <v>1000</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="A63" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="8">
         <v>45466</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="8">
         <v>45477</v>
       </c>
-      <c r="D63">
-        <v>50</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="D63" s="7">
+        <v>100</v>
+      </c>
+      <c r="E63" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="9">
         <v>50000</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="9">
         <v>60000</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63" s="9">
         <f t="shared" ref="H63:H71" si="8">F63-G63</f>
         <v>-10000</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>2000</v>
-      </c>
-      <c r="K63">
+      <c r="I63" s="7">
+        <v>0</v>
+      </c>
+      <c r="J63" s="7">
+        <v>2000</v>
+      </c>
+      <c r="K63" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="A64" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="8">
         <v>45473</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="8">
         <v>45491</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="7">
+        <v>100</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" s="9">
+        <v>500000</v>
+      </c>
+      <c r="G64" s="9">
+        <v>500000</v>
+      </c>
+      <c r="H64" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="7">
+        <v>0</v>
+      </c>
+      <c r="J64" s="7">
+        <v>3000</v>
+      </c>
+      <c r="K64" s="7">
         <v>30</v>
       </c>
-      <c r="E64" t="s">
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="8">
+        <v>45480</v>
+      </c>
+      <c r="C65" s="8">
+        <v>45484</v>
+      </c>
+      <c r="D65" s="7">
+        <v>100</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F64" s="2">
-        <v>500000</v>
-      </c>
-      <c r="G64" s="2">
-        <v>500000</v>
-      </c>
-      <c r="H64" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>3000</v>
-      </c>
-      <c r="K64">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>14</v>
-      </c>
-      <c r="B65" s="1">
-        <v>45480</v>
-      </c>
-      <c r="C65" s="1">
-        <v>45484</v>
-      </c>
-      <c r="D65">
-        <v>20</v>
-      </c>
-      <c r="E65" t="s">
-        <v>27</v>
-      </c>
-      <c r="F65" s="2">
+      <c r="F65" s="9">
         <v>200000</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65" s="9">
         <v>180000</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65" s="9">
         <f t="shared" si="8"/>
         <v>20000</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
+      <c r="I65" s="7">
+        <v>0</v>
+      </c>
+      <c r="J65" s="7">
         <v>4000</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="7">
         <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="A66" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="8">
         <v>45480</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="8">
         <v>45484</v>
       </c>
-      <c r="D66">
-        <v>50</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="D66" s="7">
+        <v>100</v>
+      </c>
+      <c r="E66" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="9">
         <v>200000</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66" s="9">
         <v>90000</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66" s="9">
         <f t="shared" si="8"/>
         <v>110000</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
+      <c r="I66" s="7">
+        <v>0</v>
+      </c>
+      <c r="J66" s="7">
         <v>4000</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="7">
         <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="A67" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="8">
         <v>45491</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="8">
         <v>45493</v>
       </c>
-      <c r="D67">
-        <v>50</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="D67" s="7">
+        <v>100</v>
+      </c>
+      <c r="E67" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="9">
         <v>800000</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G67" s="9">
         <v>700000</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67" s="9">
         <f t="shared" si="8"/>
         <v>100000</v>
       </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
+      <c r="I67" s="7">
+        <v>0</v>
+      </c>
+      <c r="J67" s="7">
         <v>3000</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="7">
         <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="A68" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="8">
         <v>45493</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="8">
         <v>45502</v>
       </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="D68" s="7">
+        <v>100</v>
+      </c>
+      <c r="E68" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F68" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G68" s="2">
-        <v>150000</v>
-      </c>
-      <c r="H68" s="2">
+      <c r="F68" s="9">
+        <v>150000</v>
+      </c>
+      <c r="G68" s="9">
+        <v>150000</v>
+      </c>
+      <c r="H68" s="9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>2000</v>
-      </c>
-      <c r="K68">
+      <c r="I68" s="7">
+        <v>0</v>
+      </c>
+      <c r="J68" s="7">
+        <v>2000</v>
+      </c>
+      <c r="K68" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="A69" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="8">
         <v>45493</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="8">
         <v>45502</v>
       </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="D69" s="7">
+        <v>100</v>
+      </c>
+      <c r="E69" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F69" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G69" s="2">
+      <c r="F69" s="9">
+        <v>150000</v>
+      </c>
+      <c r="G69" s="9">
         <v>180000</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H69" s="9">
         <f t="shared" si="8"/>
         <v>-30000</v>
       </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>2000</v>
-      </c>
-      <c r="K69">
+      <c r="I69" s="7">
+        <v>0</v>
+      </c>
+      <c r="J69" s="7">
+        <v>2000</v>
+      </c>
+      <c r="K69" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="A70" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="8">
         <v>45503</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="8">
         <v>45504</v>
       </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="D70" s="7">
+        <v>0</v>
+      </c>
+      <c r="E70" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F70" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G70" s="2">
+      <c r="F70" s="9">
+        <v>150000</v>
+      </c>
+      <c r="G70" s="9">
         <v>100000</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H70" s="9">
         <f t="shared" si="8"/>
         <v>50000</v>
       </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>2000</v>
-      </c>
-      <c r="K70">
+      <c r="I70" s="7">
+        <v>0</v>
+      </c>
+      <c r="J70" s="7">
+        <v>2000</v>
+      </c>
+      <c r="K70" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>20</v>
-      </c>
-      <c r="B71" s="1">
+      <c r="A71" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="8">
         <v>45503</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="8">
         <v>45504</v>
       </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="D71" s="7">
+        <v>0</v>
+      </c>
+      <c r="E71" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F71" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G71" s="2">
+      <c r="F71" s="9">
+        <v>150000</v>
+      </c>
+      <c r="G71" s="9">
         <v>90000</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H71" s="9">
         <f t="shared" si="8"/>
         <v>60000</v>
       </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>2000</v>
-      </c>
-      <c r="K71">
+      <c r="I71" s="7">
+        <v>0</v>
+      </c>
+      <c r="J71" s="7">
+        <v>2000</v>
+      </c>
+      <c r="K71" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="A72" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="11">
         <v>45444</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="11">
         <v>45470</v>
       </c>
-      <c r="D72">
-        <v>90</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="D72" s="10">
+        <v>100</v>
+      </c>
+      <c r="E72" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="12">
         <v>50000</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G72" s="12">
         <v>100000</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H72" s="12">
         <f>F72-G72</f>
         <v>-50000</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
+      <c r="I72" s="10">
+        <v>0</v>
+      </c>
+      <c r="J72" s="10">
         <v>1000</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="A73" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="11">
         <v>45466</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="11">
         <v>45477</v>
       </c>
-      <c r="D73">
-        <v>50</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="D73" s="10">
+        <v>100</v>
+      </c>
+      <c r="E73" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73" s="12">
         <v>50000</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G73" s="12">
         <v>60000</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H73" s="12">
         <f t="shared" ref="H73:H81" si="9">F73-G73</f>
         <v>-10000</v>
       </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>2000</v>
-      </c>
-      <c r="K73">
+      <c r="I73" s="10">
+        <v>0</v>
+      </c>
+      <c r="J73" s="10">
+        <v>2000</v>
+      </c>
+      <c r="K73" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="A74" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="11">
         <v>45473</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="11">
         <v>45491</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="10">
+        <v>100</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F74" s="12">
+        <v>500000</v>
+      </c>
+      <c r="G74" s="12">
+        <v>500000</v>
+      </c>
+      <c r="H74" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="10">
+        <v>0</v>
+      </c>
+      <c r="J74" s="10">
+        <v>3000</v>
+      </c>
+      <c r="K74" s="10">
         <v>30</v>
       </c>
-      <c r="E74" t="s">
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" s="11">
+        <v>45480</v>
+      </c>
+      <c r="C75" s="11">
+        <v>45484</v>
+      </c>
+      <c r="D75" s="10">
+        <v>100</v>
+      </c>
+      <c r="E75" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F74" s="2">
-        <v>500000</v>
-      </c>
-      <c r="G74" s="2">
-        <v>500000</v>
-      </c>
-      <c r="H74" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>3000</v>
-      </c>
-      <c r="K74">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>14</v>
-      </c>
-      <c r="B75" s="1">
-        <v>45480</v>
-      </c>
-      <c r="C75" s="1">
-        <v>45484</v>
-      </c>
-      <c r="D75">
-        <v>20</v>
-      </c>
-      <c r="E75" t="s">
-        <v>28</v>
-      </c>
-      <c r="F75" s="2">
+      <c r="F75" s="12">
         <v>200000</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G75" s="12">
         <v>180000</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H75" s="12">
         <f t="shared" si="9"/>
         <v>20000</v>
       </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
+      <c r="I75" s="10">
+        <v>0</v>
+      </c>
+      <c r="J75" s="10">
         <v>4000</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="10">
         <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="A76" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="11">
         <v>45480</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="11">
         <v>45484</v>
       </c>
-      <c r="D76">
-        <v>50</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="D76" s="10">
+        <v>100</v>
+      </c>
+      <c r="E76" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76" s="12">
         <v>200000</v>
       </c>
-      <c r="G76" s="2">
+      <c r="G76" s="12">
         <v>90000</v>
       </c>
-      <c r="H76" s="2">
+      <c r="H76" s="12">
         <f t="shared" si="9"/>
         <v>110000</v>
       </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
+      <c r="I76" s="10">
+        <v>0</v>
+      </c>
+      <c r="J76" s="10">
         <v>4000</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="10">
         <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="A77" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="11">
         <v>45491</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="11">
         <v>45493</v>
       </c>
-      <c r="D77">
-        <v>50</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="D77" s="10">
+        <v>100</v>
+      </c>
+      <c r="E77" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="12">
         <v>800000</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G77" s="12">
         <v>700000</v>
       </c>
-      <c r="H77" s="2">
+      <c r="H77" s="12">
         <f t="shared" si="9"/>
         <v>100000</v>
       </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
+      <c r="I77" s="10">
+        <v>0</v>
+      </c>
+      <c r="J77" s="10">
         <v>3000</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="10">
         <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="A78" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="11">
         <v>45493</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="11">
         <v>45502</v>
       </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="D78" s="10">
+        <v>80</v>
+      </c>
+      <c r="E78" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F78" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G78" s="2">
-        <v>150000</v>
-      </c>
-      <c r="H78" s="2">
+      <c r="F78" s="12">
+        <v>150000</v>
+      </c>
+      <c r="G78" s="12">
+        <v>150000</v>
+      </c>
+      <c r="H78" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>2000</v>
-      </c>
-      <c r="K78">
+      <c r="I78" s="10">
+        <v>0</v>
+      </c>
+      <c r="J78" s="10">
+        <v>2000</v>
+      </c>
+      <c r="K78" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="A79" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="11">
         <v>45493</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="11">
         <v>45502</v>
       </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="D79" s="10">
+        <v>0</v>
+      </c>
+      <c r="E79" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F79" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G79" s="2">
+      <c r="F79" s="12">
+        <v>150000</v>
+      </c>
+      <c r="G79" s="12">
         <v>180000</v>
       </c>
-      <c r="H79" s="2">
+      <c r="H79" s="12">
         <f t="shared" si="9"/>
         <v>-30000</v>
       </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>2000</v>
-      </c>
-      <c r="K79">
+      <c r="I79" s="10">
+        <v>0</v>
+      </c>
+      <c r="J79" s="10">
+        <v>2000</v>
+      </c>
+      <c r="K79" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="A80" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="11">
         <v>45503</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="11">
         <v>45504</v>
       </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="D80" s="10">
+        <v>0</v>
+      </c>
+      <c r="E80" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F80" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G80" s="2">
+      <c r="F80" s="12">
+        <v>150000</v>
+      </c>
+      <c r="G80" s="12">
         <v>100000</v>
       </c>
-      <c r="H80" s="2">
+      <c r="H80" s="12">
         <f t="shared" si="9"/>
         <v>50000</v>
       </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>2000</v>
-      </c>
-      <c r="K80">
+      <c r="I80" s="10">
+        <v>0</v>
+      </c>
+      <c r="J80" s="10">
+        <v>2000</v>
+      </c>
+      <c r="K80" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>20</v>
-      </c>
-      <c r="B81" s="1">
+      <c r="A81" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" s="11">
         <v>45503</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="11">
         <v>45504</v>
       </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="D81" s="10">
+        <v>0</v>
+      </c>
+      <c r="E81" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F81" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G81" s="2">
+      <c r="F81" s="12">
+        <v>150000</v>
+      </c>
+      <c r="G81" s="12">
         <v>90000</v>
       </c>
-      <c r="H81" s="2">
+      <c r="H81" s="12">
         <f t="shared" si="9"/>
         <v>60000</v>
       </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>2000</v>
-      </c>
-      <c r="K81">
+      <c r="I81" s="10">
+        <v>0</v>
+      </c>
+      <c r="J81" s="10">
+        <v>2000</v>
+      </c>
+      <c r="K81" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="2">
         <v>45444</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="2">
         <v>45470</v>
       </c>
-      <c r="D82">
-        <v>90</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="D82" s="1">
+        <v>100</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F82" s="3">
         <v>50000</v>
       </c>
-      <c r="G82" s="2">
+      <c r="G82" s="3">
         <v>100000</v>
       </c>
-      <c r="H82" s="2">
+      <c r="H82" s="3">
         <f>F82-G82</f>
         <v>-50000</v>
       </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
+      <c r="I82" s="1">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1">
         <v>1000</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="A83" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="2">
         <v>45466</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="2">
         <v>45477</v>
       </c>
-      <c r="D83">
-        <v>50</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="D83" s="1">
+        <v>100</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83" s="3">
         <v>50000</v>
       </c>
-      <c r="G83" s="2">
+      <c r="G83" s="3">
         <v>60000</v>
       </c>
-      <c r="H83" s="2">
+      <c r="H83" s="3">
         <f t="shared" ref="H83:H91" si="10">F83-G83</f>
         <v>-10000</v>
       </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>2000</v>
-      </c>
-      <c r="K83">
+      <c r="I83" s="1">
+        <v>0</v>
+      </c>
+      <c r="J83" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K83" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="A84" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="2">
         <v>45473</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="2">
         <v>45491</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="1">
+        <v>100</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="3">
+        <v>500000</v>
+      </c>
+      <c r="G84" s="3">
+        <v>500000</v>
+      </c>
+      <c r="H84" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0</v>
+      </c>
+      <c r="J84" s="1">
+        <v>3000</v>
+      </c>
+      <c r="K84" s="1">
         <v>30</v>
       </c>
-      <c r="E84" t="s">
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" s="2">
+        <v>45480</v>
+      </c>
+      <c r="C85" s="2">
+        <v>45484</v>
+      </c>
+      <c r="D85" s="1">
+        <v>100</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F84" s="2">
-        <v>500000</v>
-      </c>
-      <c r="G84" s="2">
-        <v>500000</v>
-      </c>
-      <c r="H84" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>3000</v>
-      </c>
-      <c r="K84">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>14</v>
-      </c>
-      <c r="B85" s="1">
-        <v>45480</v>
-      </c>
-      <c r="C85" s="1">
-        <v>45484</v>
-      </c>
-      <c r="D85">
-        <v>20</v>
-      </c>
-      <c r="E85" t="s">
-        <v>29</v>
-      </c>
-      <c r="F85" s="2">
+      <c r="F85" s="3">
         <v>200000</v>
       </c>
-      <c r="G85" s="2">
+      <c r="G85" s="3">
         <v>180000</v>
       </c>
-      <c r="H85" s="2">
+      <c r="H85" s="3">
         <f t="shared" si="10"/>
         <v>20000</v>
       </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
+      <c r="I85" s="1">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1">
         <v>4000</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="A86" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="2">
         <v>45480</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="2">
         <v>45484</v>
       </c>
-      <c r="D86">
-        <v>50</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="D86" s="1">
+        <v>100</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86" s="3">
         <v>200000</v>
       </c>
-      <c r="G86" s="2">
+      <c r="G86" s="3">
         <v>90000</v>
       </c>
-      <c r="H86" s="2">
+      <c r="H86" s="3">
         <f t="shared" si="10"/>
         <v>110000</v>
       </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
+      <c r="I86" s="1">
+        <v>0</v>
+      </c>
+      <c r="J86" s="1">
         <v>4000</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="A87" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="2">
         <v>45491</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="2">
         <v>45493</v>
       </c>
-      <c r="D87">
-        <v>50</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="D87" s="1">
+        <v>100</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87" s="3">
         <v>800000</v>
       </c>
-      <c r="G87" s="2">
+      <c r="G87" s="3">
         <v>700000</v>
       </c>
-      <c r="H87" s="2">
+      <c r="H87" s="3">
         <f t="shared" si="10"/>
         <v>100000</v>
       </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87">
+      <c r="I87" s="1">
+        <v>0</v>
+      </c>
+      <c r="J87" s="1">
         <v>3000</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="A88" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="2">
         <v>45493</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="2">
         <v>45502</v>
       </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="D88" s="1">
+        <v>80</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F88" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G88" s="2">
-        <v>150000</v>
-      </c>
-      <c r="H88" s="2">
+      <c r="F88" s="3">
+        <v>150000</v>
+      </c>
+      <c r="G88" s="3">
+        <v>150000</v>
+      </c>
+      <c r="H88" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88">
-        <v>2000</v>
-      </c>
-      <c r="K88">
+      <c r="I88" s="1">
+        <v>0</v>
+      </c>
+      <c r="J88" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K88" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="A89" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="2">
         <v>45493</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="2">
         <v>45502</v>
       </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="D89" s="1">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F89" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G89" s="2">
+      <c r="F89" s="3">
+        <v>150000</v>
+      </c>
+      <c r="G89" s="3">
         <v>180000</v>
       </c>
-      <c r="H89" s="2">
+      <c r="H89" s="3">
         <f t="shared" si="10"/>
         <v>-30000</v>
       </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>2000</v>
-      </c>
-      <c r="K89">
+      <c r="I89" s="1">
+        <v>0</v>
+      </c>
+      <c r="J89" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K89" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="A90" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="2">
         <v>45503</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="2">
         <v>45504</v>
       </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="D90" s="1">
+        <v>0</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F90" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G90" s="2">
+      <c r="F90" s="3">
+        <v>150000</v>
+      </c>
+      <c r="G90" s="3">
         <v>100000</v>
       </c>
-      <c r="H90" s="2">
+      <c r="H90" s="3">
         <f t="shared" si="10"/>
         <v>50000</v>
       </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>2000</v>
-      </c>
-      <c r="K90">
+      <c r="I90" s="1">
+        <v>0</v>
+      </c>
+      <c r="J90" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K90" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>20</v>
-      </c>
-      <c r="B91" s="1">
+      <c r="A91" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" s="2">
         <v>45503</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="2">
         <v>45504</v>
       </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="D91" s="1">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F91" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G91" s="2">
+      <c r="F91" s="3">
+        <v>150000</v>
+      </c>
+      <c r="G91" s="3">
         <v>90000</v>
       </c>
-      <c r="H91" s="2">
+      <c r="H91" s="3">
         <f t="shared" si="10"/>
         <v>60000</v>
       </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>2000</v>
-      </c>
-      <c r="K91">
+      <c r="I91" s="1">
+        <v>0</v>
+      </c>
+      <c r="J91" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K91" s="1">
         <v>20</v>
       </c>
     </row>

--- a/solar_project_data.xlsx
+++ b/solar_project_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deserttech-my.sharepoint.com/personal/haytham_desert-technologies_com/Documents/Nurun/Dashboard/GitHub/Solar-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:1_{488DEDDC-6C9D-4221-A534-4B1946FAC203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D02E08CF-FB0B-4E57-A164-E95BA1970601}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="13_ncr:1_{488DEDDC-6C9D-4221-A534-4B1946FAC203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E706DF90-0DB6-43AC-884E-A3574D20D174}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{65C84945-89BE-4E07-9382-F506FB6AEE4E}"/>
   </bookViews>
@@ -135,7 +135,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +152,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -216,6 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -554,55 +563,54 @@
   <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
     </row>

--- a/solar_project_data.xlsx
+++ b/solar_project_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deserttech-my.sharepoint.com/personal/haytham_desert-technologies_com/Documents/Nurun/Dashboard/GitHub/Solar-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="13_ncr:1_{488DEDDC-6C9D-4221-A534-4B1946FAC203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E706DF90-0DB6-43AC-884E-A3574D20D174}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="13_ncr:1_{488DEDDC-6C9D-4221-A534-4B1946FAC203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07539761-4428-4987-956F-945D0192938B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{65C84945-89BE-4E07-9382-F506FB6AEE4E}"/>
   </bookViews>
@@ -563,7 +563,7 @@
   <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -913,7 +913,7 @@
         <v>45504</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>21</v>
